--- a/cypress/downloads/test-results.xlsx
+++ b/cypress/downloads/test-results.xlsx
@@ -397,58 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Test</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Timestamp</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Button Clicked</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2025-02-01T23:21:50.181Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User ID Input</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2025-02-01T23:21:50.781Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve">Passworhasben </v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-02-01T23:21:50.996Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-results.xlsx
+++ b/cypress/downloads/test-results.xlsx
@@ -1,41 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Automation\TBGSYS-Cypress-\cypress\downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E0092-DB9B-4DD5-B0C8-085C12A54E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Test Results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Button Clicked</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2025-02-08T10:24:51.733Z</t>
+  </si>
+  <si>
+    <t>User masuk ke Page Stip Input</t>
+  </si>
+  <si>
+    <t>2025-02-08T10:24:51.734Z</t>
+  </si>
+  <si>
+    <t>User ID Input</t>
+  </si>
+  <si>
+    <t>2025-02-08T10:24:53.224Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passworhasben </t>
+  </si>
+  <si>
+    <t>2025-02-08T10:24:53.454Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +99,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,14 +431,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError sqref="A1:C5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-results.xlsx
+++ b/cypress/downloads/test-results.xlsx
@@ -1,68 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Automation\TBGSYS-Cypress-\cypress\downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E0092-DB9B-4DD5-B0C8-085C12A54E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Test Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Button Clicked</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>2025-02-08T10:24:51.733Z</t>
-  </si>
-  <si>
-    <t>User masuk ke Page Stip Input</t>
-  </si>
-  <si>
-    <t>2025-02-08T10:24:51.734Z</t>
-  </si>
-  <si>
-    <t>User ID Input</t>
-  </si>
-  <si>
-    <t>2025-02-08T10:24:53.224Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passworhasben </t>
-  </si>
-  <si>
-    <t>2025-02-08T10:24:53.454Z</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,14 +72,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,74 +396,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Timestamp</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Button Clicked</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-02-09T01:17:06.310Z</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User masuk ke Page Stip Input</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-02-09T01:17:06.312Z</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User ID Input</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-02-09T01:17:07.824Z</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Passworhasbeeninputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-02-09T01:17:08.052Z</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C5" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-results.xlsx
+++ b/cypress/downloads/test-results.xlsx
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-09T01:17:06.310Z</v>
+        <v>2025-02-09T09:03:24.697Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-02-09T01:17:06.312Z</v>
+        <v>2025-02-09T09:03:24.697Z</v>
       </c>
     </row>
     <row r="4">
@@ -443,18 +443,18 @@
         <v>Pass</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-02-09T01:17:07.824Z</v>
+        <v>2025-02-09T09:03:26.117Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Passworhasbeeninputed</v>
+        <v xml:space="preserve">Passworhasben </v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-02-09T01:17:08.052Z</v>
+        <v>2025-02-09T09:03:26.354Z</v>
       </c>
     </row>
   </sheetData>
